--- a/biology/Médecine/Période_de_latence/Période_de_latence.xlsx
+++ b/biology/Médecine/Période_de_latence/Période_de_latence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9riode_de_latence</t>
+          <t>Période_de_latence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, la période de latence désigne la période sans symptômes cliniques entre l'exposition d'un tissu biologique à un agent pathogène et la réponse du tissu.  
 Cela peut correspondre à la période d'incubation ou bien être une rémission après une phase active de la maladie, par exemple dans le cas de la syphilis latente, de varicelle-zona, de la maladie de Lyme...
-En infectiologie la  période de latence (d)  correspond à l'intervalle de temps entre l'infection d'une personne et le début de sa contagiosité; elle se distingue de la période de latence clinique en cas d’existence de porteurs sains qui peuvent transmettre la maladie sans exprimer de symptômes[1].
+En infectiologie la  période de latence (d)  correspond à l'intervalle de temps entre l'infection d'une personne et le début de sa contagiosité; elle se distingue de la période de latence clinique en cas d’existence de porteurs sains qui peuvent transmettre la maladie sans exprimer de symptômes.
 </t>
         </is>
       </c>
